--- a/biology/Zoologie/Ctenophorus_caudicinctus/Ctenophorus_caudicinctus.xlsx
+++ b/biology/Zoologie/Ctenophorus_caudicinctus/Ctenophorus_caudicinctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophorus caudicinctus est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophorus caudicinctus est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Australie-Occidentale, en Australie-Méridionale, au Territoire du Nord et au Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, en Australie-Méridionale, au Territoire du Nord et au Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (17 avril 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (17 avril 2012) :
 Ctenophorus caudicinctus caudicinctus (Günther, 1875)
 Ctenophorus caudicinctus graafi (Storr, 1967)
 Ctenophorus caudicinctus infans (Storr, 1967)
@@ -578,7 +594,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1875 : A list of the saurians of Australia and New Zealand in Richardson &amp; Gray, 1875 : The zoology of the voyage of H.M.S. Erebus and Terror, during the years 1839 to 1843. By authority of the Lords Commissioners of the Admiralty, E. W. Janson, London, vol. 2, p. 9-19 (texte intégral).
 Storr, 1967 : Geographic races of the agamid lizard Amphibolurus caudicinctus.  Journal of The Royal Society of Western Australia, vol. 50, p. 49-56.</t>
